--- a/RestAssuredAutomation/target/test-classes/Response.xlsx
+++ b/RestAssuredAutomation/target/test-classes/Response.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginResponse" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -26,16 +26,16 @@
     <t>Session</t>
   </si>
   <si>
-    <t>eyJraWQiOiJVS3ZSSnBseHZOQUJLVDhhWkZtMzZ3ZnpXenB3cHV6dmloczNob0tWbDlvPSIsImFsZyI6IlJTMjU2In0.eyJzdWIiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJpc3MiOiJodHRwczpcL1wvY29nbml0by1pZHAudXMtZWFzdC0xLmFtYXpvbmF3cy5jb21cL3VzLWVhc3QtMV82SUljcUM0WFAiLCJjbGllbnRfaWQiOiIyaW9zb2U4OTUzY2owaWhtbzdydWt2bWg4Iiwib3JpZ2luX2p0aSI6IjNlNGMzOGYzLTFlYmEtNDMxZC1iYjI4LTg2NjQyMGU1NzEyYiIsImV2ZW50X2lkIjoiMjlhYzhlZGQtZmQ4YS00OWFkLThiNWEtNzg1MjQyOWNmOGQ1IiwidG9rZW5fdXNlIjoiYWNjZXNzIiwic2NvcGUiOiJhd3MuY29nbml0by5zaWduaW4udXNlci5hZG1pbiIsImF1dGhfdGltZSI6MTY1OTUwMzA0OSwiZXhwIjoxNjU5NTAzOTQ5LCJpYXQiOjE2NTk1MDMwNDksImp0aSI6IjFjMDRkOWI1LWJiZjctNGNjMi1iOGRmLTI2NDIxYzhkYjc5OCIsInVzZXJuYW1lIjoiYmJhNDhkNDQtNTdkNy00M2RmLWJmNWItODJmOWJhOGM2Mjg3In0.rOJYxai419NtOcnC5_ghJF-lBvtos1PcixVpq4V3zCIJFBLDwMZLHNjCTwuZIj4-zfqIUODqTQuSc1qIDp9vQGR7KJRzsikES9FhbKyzBjLV7U2JkCBDL9jJkTqSO6oeNkI54M5MatG4JljaligA6BLRJwZTh_7IHPBbjPqFD_c8tRUDR43M8RrwQpe9uT-Ws54LhkHlxe5kJf_QyAT37IVf4FozsEiNZewrha9lbpAnXwq5xIElwt_nT63uNFufi3DMklpjpxsa0nsavLrqYypiFK7l6cjrCuyY6CF9RrcclzrtIkzi8Z5RZoEPKyC55h1ZHr4vXsolCzvo5Dbegg</t>
+    <t>eyJraWQiOiJVS3ZSSnBseHZOQUJLVDhhWkZtMzZ3ZnpXenB3cHV6dmloczNob0tWbDlvPSIsImFsZyI6IlJTMjU2In0.eyJzdWIiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJpc3MiOiJodHRwczpcL1wvY29nbml0by1pZHAudXMtZWFzdC0xLmFtYXpvbmF3cy5jb21cL3VzLWVhc3QtMV82SUljcUM0WFAiLCJjbGllbnRfaWQiOiIyaW9zb2U4OTUzY2owaWhtbzdydWt2bWg4Iiwib3JpZ2luX2p0aSI6IjAzM2VjZjk3LTUxNzgtNDdiOS04MDQyLTI1YmEzZjczNGYyZiIsImV2ZW50X2lkIjoiYTczYmE2MWUtOGMzYy00ZjZlLWE2MGQtMDM2MzU1Y2E2ZTg0IiwidG9rZW5fdXNlIjoiYWNjZXNzIiwic2NvcGUiOiJhd3MuY29nbml0by5zaWduaW4udXNlci5hZG1pbiIsImF1dGhfdGltZSI6MTY2MTE2MjkzOSwiZXhwIjoxNjYxMTYzODM5LCJpYXQiOjE2NjExNjI5MzksImp0aSI6IjQxNmMwM2FjLWI3ZTgtNDRkOC1iZmY3LWI5NTUzYTE2Y2EwNSIsInVzZXJuYW1lIjoiYmJhNDhkNDQtNTdkNy00M2RmLWJmNWItODJmOWJhOGM2Mjg3In0.d06PDob2hrQIz-JAb0z1g2wpYSSR_lsqiks_s8MwIZVS4NG3-2HgfXGHc4-xlUS8njBiFSwAakzLArZKQAeNnuzHp1HgphLS445QKD3WL_LO69z_J6JYghh8BOfGLa67HyEqO14uiqST6UyJTnib_c9C_SvbQx1lb-hSmgN7LjcxHFmo7xZ0dHi-wW3FvLk1-wwktL1E1ol_IXY6uWyxlAuUw4-amYx41yk80QVXwrdq-bsAzilPO2rmkVkdgEt19lluxILnlPSmxBsucoMC75WMCs9EXqKp5CdFkgSMIn055eGULpWJimWQ4_QsazLlQ_XMC8AF2onjNYtVfJUmJA</t>
   </si>
   <si>
-    <t>eyJraWQiOiIzUWJLOXJkWTBlbUdcLyt0VjZHbUVVaEVsSXZTb2JqdFVDcTFNQnZ5SDFnST0iLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJlbWFpbF92ZXJpZmllZCI6dHJ1ZSwiaXNzIjoiaHR0cHM6XC9cL2NvZ25pdG8taWRwLnVzLWVhc3QtMS5hbWF6b25hd3MuY29tXC91cy1lYXN0LTFfNklJY3FDNFhQIiwiY3VzdG9tOnVzZXJfaWQiOiJ1c3JfbDJva3VhaDlVb3ZtUTJZNiIsImNvZ25pdG86dXNlcm5hbWUiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJjdXN0b206YWNjb3VudHMiOiJ7XCJhY2N0X2wyb2t3MjVvNUVkcjM2ckFcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdkN3M4VXFEYmo3SzJcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA1NGtmME5Pb3lPb25cIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmaDhwOEI3VjVZdXVcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdnNGh6a29vVTR4WHBcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjAyb200OXRhRkZuYWtcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA0YmF5OHBsOHVLcXBcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3bm9rSE9RQUdiWEJcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmNWgzUlpxdFdqTE1cIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA0NXMwS1kzTzB5eHdcIjpcIk93bmVyXCIsXCJhY2N0X2wyb2t1YWhic3F2M2N6dHpcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmMXplRklEUkxiaVVcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3cGU5SU04eUs4d2JcIjpcIk93bmVyXCIsXCJhY2N0X2wzbXl0bHlqaml1R21ueDFcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3a28zcWNRa25qN3pcIjpcIk93bmVyXCIsXCJhY2N0X2wyc3Nob2JsTmt4cXhPMUdcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3MzFoSVUxWm1tTTVcIjpcIk93bmVyXCIsXCJhY2N0X2w0M3FlOGJiTjNjN0N5NmlcIjpcIk93bmVyXCIsXCJhY2N0X2wydTZkY2F0clhGTlJ6R1dcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA1MDBnNFhZak42bWFcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdnNnNuc1lPdFRwSmJcIjpcIk93bmVyXCJ9Iiwib3JpZ2luX2p0aSI6IjNlNGMzOGYzLTFlYmEtNDMxZC1iYjI4LTg2NjQyMGU1NzEyYiIsImF1ZCI6IjJpb3NvZTg5NTNjajBpaG1vN3J1a3ZtaDgiLCJldmVudF9pZCI6IjI5YWM4ZWRkLWZkOGEtNDlhZC04YjVhLTc4NTI0MjljZjhkNSIsInRva2VuX3VzZSI6ImlkIiwiYXV0aF90aW1lIjoxNjU5NTAzMDQ5LCJuYW1lIjoiUGFsYXNoIFBhdGlkYXIiLCJleHAiOjE2NTk1MDM5NDksImlhdCI6MTY1OTUwMzA0OSwianRpIjoiMGE5Y2E1NGUtMjY2Yy00NTBjLTllZGEtYmQ0NzhjMDMyZDhhIiwiZW1haWwiOiJwYWxhc2hAdHJ5c3BlZWQuY29tIn0.o_of7MiIDo6fsRONkAHwTsh8lNh3x5FYcGbGhuoO_62UEYm9hcJjd00w5JYjt7aTPlVyAQF0yCSkMOduztzOGA0gR5V-17aHiJc7--4miM732wjNrLpZAFVgtuq1_tk0nt_QlIS4fnEtnqOk3nFaNJfVG0_SGYvBXdBm6v7-cCy2hze--KwhRZBgv4JByoPYRRFjDiLfw8QFi09N4jx69Hz18oWzDFiiLRIESlwGwA7W5SO7aLHSkEJZ6t7gBfo2qSDG7TRaaF5OgFuOtK1AQR7HidlzQ9Hgx7B5C8oyUv6EDRqElZcyggIp3E8cq5c9IHFfnCbKprPeXHWvpISIWg</t>
+    <t>eyJraWQiOiIzUWJLOXJkWTBlbUdcLyt0VjZHbUVVaEVsSXZTb2JqdFVDcTFNQnZ5SDFnST0iLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJlbWFpbF92ZXJpZmllZCI6dHJ1ZSwiaXNzIjoiaHR0cHM6XC9cL2NvZ25pdG8taWRwLnVzLWVhc3QtMS5hbWF6b25hd3MuY29tXC91cy1lYXN0LTFfNklJY3FDNFhQIiwiY3VzdG9tOnVzZXJfaWQiOiJ1c3JfbDJva3VhaDlVb3ZtUTJZNiIsImNvZ25pdG86dXNlcm5hbWUiOiJiYmE0OGQ0NC01N2Q3LTQzZGYtYmY1Yi04MmY5YmE4YzYyODciLCJjdXN0b206YWNjb3VudHMiOiJ7XCJhY2N0X2wyb2t3MjVvNUVkcjM2ckFcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdkN3M4VXFEYmo3SzJcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA1NGtmME5Pb3lPb25cIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmaDhwOEI3VjVZdXVcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdnNGh6a29vVTR4WHBcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjAyb200OXRhRkZuYWtcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA0YmF5OHBsOHVLcXBcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3bm9rSE9RQUdiWEJcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmNWgzUlpxdFdqTE1cIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA0NXMwS1kzTzB5eHdcIjpcIk93bmVyXCIsXCJhY2N0X2wyb2t1YWhic3F2M2N6dHpcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdmMXplRklEUkxiaVVcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3cGU5SU04eUs4d2JcIjpcIk93bmVyXCIsXCJhY2N0X2wzbXl0bHlqaml1R21ueDFcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3a28zcWNRa25qN3pcIjpcIk93bmVyXCIsXCJhY2N0X2wyc3Nob2JsTmt4cXhPMUdcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA3MzFoSVUxWm1tTTVcIjpcIk93bmVyXCIsXCJhY2N0X2w0M3FlOGJiTjNjN0N5NmlcIjpcIk93bmVyXCIsXCJhY2N0X2wydTZkY2F0clhGTlJ6R1dcIjpcIk93bmVyXCIsXCJhY2N0X2wzbjA1MDBnNFhZak42bWFcIjpcIk93bmVyXCIsXCJhY2N0X2wydTdnNnNuc1lPdFRwSmJcIjpcIk93bmVyXCJ9Iiwib3JpZ2luX2p0aSI6IjAzM2VjZjk3LTUxNzgtNDdiOS04MDQyLTI1YmEzZjczNGYyZiIsImF1ZCI6IjJpb3NvZTg5NTNjajBpaG1vN3J1a3ZtaDgiLCJldmVudF9pZCI6ImE3M2JhNjFlLThjM2MtNGY2ZS1hNjBkLTAzNjM1NWNhNmU4NCIsInRva2VuX3VzZSI6ImlkIiwiYXV0aF90aW1lIjoxNjYxMTYyOTM5LCJuYW1lIjoiUGFsYXNoIFBhdGlkYXIiLCJleHAiOjE2NjExNjM4MzksImlhdCI6MTY2MTE2MjkzOSwianRpIjoiOWE2YWNlMmMtMTBkNi00ZWEyLTgzNzItODUxOTU1MzFkNGY2IiwiZW1haWwiOiJwYWxhc2hAdHJ5c3BlZWQuY29tIn0.fm9O3CMxku5Pw4EWQjGXbgarDehMLILxs-MOjfaFgWCUhIyPSPWxUykff_l7NVhm5fHOkET5MrmcQMW4MaFVvMS9Bz_VEc6-Jmen6EnmIrLHM3vb4mJqzO8IiKWfdkIasxqf3oX_ppiNBAjdsjZ3-D26Lml_akCpnsCE6V9uNRyiS14YD4iun5E0qsa9arM98SegrdaVFV96wg0TJmcvxAPBEv1K0nQmenMsWAAMUc67g5fUvFo1tIswgIwNBSr3lR-Gewb4m8K1G_6Y7TRhb1FGdVZj0JV0kPjHi0NnNbdgslw_YtD8HZbUvXyyNEYDO_wkT7kwcW97ao078V6Pbw</t>
   </si>
   <si>
-    <t>eyJjdHkiOiJKV1QiLCJlbmMiOiJBMjU2R0NNIiwiYWxnIjoiUlNBLU9BRVAifQ.P8vsCXtkIZGjm9CHt08ivV_nsKQDHN6qRTG6-ON_mNLLf4N1MPB2oTTWeJFaFHhK8fnZWP6KJceTDvTrz-szCN0gJlcIufMpdKjqLZsOUgrRIFLAew_yESE4bNmylPgs_P_GzIVXUrADUJlOCTau63nFy8iiTsa63MSygrxdSsCq8deJmsi5o8JeerLvTSvvNCeq-aRSG6FfEfXx2yV2HXX8bAq-6tx8tcqMAnQ3gOHrWM2xWjPhErRPAvaFDoeLRzSw18tCgiSNRloVA44JiZ8mSXzJyRk5lspuZOEq9AijMQ06h2r8XvaO-6nl5eb1lwbDRvDpyTc7bFqRNEHN1Q.I-svk0dVtp54QRpT.NjZfhMozXfQd9xJVgFc7PfdJiLkS9OPZgsNZ0pqaTNOqJsJjusyuifGAElPXWB2SlyUk05jqWvwZtycTtbmr98F1F-2w3lKaV9v2o9MrXPqZ7kskVH4YAqR7k-DtKZMoOg7RtJwRuCLzyMZuC8V1H8gwwa3lllzDmv_9xyCMfRVmH5wvCB3mo9T2TqQdY1sVGeDFg8lF6WDry5kO5mi9iWI2YbTwfIxiHj_QGImCpgOiKULwpe6WNiqSw17LGxFsqxRXBYOdIns6XbHYBkZ0w5htUvNkYrFyy8sRXv5aDHrlmrLOg-iWInCyHS1JGo2JNU08F3bXYEA1r4RXdspycSoCMW5nf2g3_6_WFhYu-wlApIK1ogOi7ayiCPtN_3QZ0HrlM28Fo7cXg-o1q0e6nTCUDxlQenoAmstD1msVAvE89cc30D8kSMgXoLHewtfsOikQB79f-ZtJAllF1N00PnycAuyJHbBK6XozjgfndFMDBVyf-kPomnVwc3JN_Tjo8KD8A2exz8NGPAhB4141lTFZrmcEjMdwyE2NhRWrvXFnKj_NGmeiNvrkqrUR9zBTBUQpZeQ5_-oTMQgIoihX1OP2HYMMosZHLzFO50ubyDEonxeilG8SnRVgMkPms85wkyOMyrw1z3RfbFzhdxn0yqqu8zQsWXSS9DE3Tezozd5b0FG5f-2DxHnngOR9rQhYhtIZLSilQE6ZriExVqarsuCE0jXYsveQwPSgDRzI_dku6X7VC63H5E93Aeislw3SsqhwKMJAGqx6lCc62y1aiw2ddNcvn5yhDEDDzttjCoArf8SDd-03PfYdy-_ACmaBaGd_n8sYuIG_5Uv-aQSmck4XI1HBl1TMsAjGz9r0Sy7iH0Hy3RGdPZ0ZfTI3TPTJH5nY2LixbqzN6H0Ndmkf7foT5u-KT6raMlacamhh_-fF_Brhpag2igg2Van4zcci--Zt2T8KxxYPjFYJtvH4k3t8Gc87YfcBp6i1r-_3Y5M6zxgOqfi07_hR42ymiRpeLJOtu6gX9aLAdcGvjyIx7vZeMF3H_xy5d04FeP-qsf25qdPNRNl698I-c9vru6OV6pMdEy8D-9pS-coCnOSKniMOvmwibJGINRv57TTbDacQMLqQQFtPHOGmNPcFYpEI02d5atZMwHmGtwTm9BOTlnnaJUNX7o4Ux_S89UQEB58pyq052dFrd8Z0hCVCJ1kgh2pRoJadTq09W9hKrpUrSeM59bDRzoPmzsmj0-saHW8UWMpsBq-IOD8fqEJQOk4-whDTwDHOvVowc1BdNPM-PQV1K9C3BC2UDTxjertQPKQFSZRgzEcd6udL.c1Sx4_9usE8kquHtAjX0kg</t>
+    <t>eyJjdHkiOiJKV1QiLCJlbmMiOiJBMjU2R0NNIiwiYWxnIjoiUlNBLU9BRVAifQ.k0tEIhZoO5qkSE2zcZYwzpYzcML_SGJnOnLwnLzR8h7evHjTw8_-D2gXKAQyODof7cTTnC-ap3GGFCOE2voQ9HtE_Z3Bef3xLPq2w4thS4MKXTPa9nYjERjGcGyr4TVVDctdahEY_O5YlVR6VEqDkeY8DwWuq-W7t83YOW6nARGlWwc0eCp0FA5aBVtNB5KXHHMWL6yuIDnwi9Kvti2ujyIsZ_6sFLdWJS4KLETC3LrKxS5eXoJ9uA6_MmpZ8jv4Wl_KGdogWMbzeGF9pHwR-sZtWLh745nAXzbqSRQwoasNs5GZTSY5dGgcSBSm-gzUOMp1Xz3N-8DiXiZpu9f8yQ.PuyZEki01ltv87AU.qW0KoyO0k-cVX40q5IIQV5zmn1nivVtt8yVemb_U8pik6xbdY-EMhxaj_FEwo_LbqsRXr7hcYVCjViG5Im44Rt3lLU3QIsHjAhCt5IJj3lha2crsjK5ir6GX_rsA4kULTFvHwf_06FDSAf3-0cEje509_Jo9dlnqdtv66dxMMSgnpkvjdFwa_b7TfYJyhjPjdZ9aJg415AivUQSQPFqjyjtnhrVyFT4juXdLG-7K-3adsl3R8eNm6AML3_pBOfpAMDy6Oh6UDccAMEUAI8q1Wpd6iJHN59BNc9_-ozTpl8APHcYTqBoi4pz65MtTIrt6rpZT2B4MhruLOMVmD1zxDPgDiNum21UfcS5ArQtSuJBeDEiOHnZXtOfRQwEBZpIJsWjHfGWOuI3ehPSBA_bGBdFigrha248RjlN8LWJiL8aLJGO9SE5z451RlALJ-Tf6Ok6IgHS7S86ATMpQkPaq1RVnebBMOsMxQuM4SmbhrrC6PJlN_v7UtQoSbgE5os-YT9ZrkatGQ91BYtj21axvaTBXH1lRGXre0ivHM5X_JC7uWefTlX68FCWgdi0LYFxPr0XADxMYqpXEqQ-wj4ZiV4drx4GFFhYguWDYpjho1lr0u-jWktJZ1Artqr8d0wRlqThDGyy3B6HImbHOeJUzqMDuhdOGCpIjDEOyW7ZrUAB7KjtZcrEhW08v2Djxs2abZK1LYQ2onZRNlokKgKKw6Bsng03vEu9erM-TE-wSu_0rv1cnsahuCVlQe-x2LkUhr54l-MZldeR7I1jL7gnjiCsYiwVoNLZteDUQBqxAk9rvKsm8ZCz_ZBdgOmXrwNXxFP7h7oH22DbJm7cCqVwRq6hHhcV6ixGQTWeZjToj96lho2NpBn8gnkhvyUqceeHpk_WLRlBLW_S8hXZ74XU1jE-PWNcKfaLJNZ5hCvwEJSttF35h9WjwhBRA91-CBM_wjcssXD2E_dYYKTIBGlaDxHGXtOWfu0EwZtIiBCxegBd9cN7k_2x24_ssyxIWmbi1lzpyWh8JwxOL7Lc9jvCZhlqyk5c2J-68xA0pTAvtMJERAAtEgOoRbuFLhrSO1KgNWgJ-eV4mcmhcZRlUeLUe0mLGkCveju8aEr0npqyC1dV5QK8UXU5QVdCELOLuf2K0GLnxLRNsJDPsXLpl2mpfY6pJrgLONHJHNEhynppZkrS6t6v1msI3gpWvI2mUwxI42VmGpzZDiCPO5wIOhX80ictb2QpTF_-cQBXaMvK3tyimHZ1yzxP8gY6d7YDq979XKkrlfIVhZA8n_ygzfkWiaZRLvWvQt1_m6c2XrNgwwA5XVnZigTFMySrV.-LuOz7XsKeEGC2Ko0gU0Gg</t>
   </si>
   <si>
-    <t>sn_l6d59o0tvWsALroS</t>
+    <t>sn_l74liva7aLtXUtLI</t>
   </si>
 </sst>
 </file>
